--- a/Lists/rb01_conditionA.xlsx
+++ b/Lists/rb01_conditionA.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Graduate Files/InvertedScenes/invertedScenes-main/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B9835-E055-EF4A-AEF8-8E749D0C70F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A1BB49-93DB-A247-9C1B-4CA8EC7C96BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - rb01_conditionA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - rb01_conditionA'!$A$2:$G$122</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -49,444 +46,456 @@
     <t>basketball_net.jpg</t>
   </si>
   <si>
+    <t>Windmill</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>Inconsistent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>bathroom2.jpg</t>
+  </si>
+  <si>
+    <t>Shower Head</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>bathroom3.jpg</t>
+  </si>
+  <si>
+    <t>Toilet Paper</t>
+  </si>
+  <si>
+    <t>bathroom4.jpg</t>
+  </si>
+  <si>
+    <t>Lawn Mower</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>bathroom6.jpg</t>
+  </si>
+  <si>
+    <t>Armchair Recliner</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>bathroom7.jpg</t>
+  </si>
+  <si>
+    <t>Soap Bar</t>
+  </si>
+  <si>
+    <t>bedroom11.jpg</t>
+  </si>
+  <si>
+    <t>Nightstand</t>
+  </si>
+  <si>
+    <t>bedroom12.jpg</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>bedroom13.jpg</t>
+  </si>
+  <si>
+    <t>Tablecloth</t>
+  </si>
+  <si>
+    <t>bedroom14.jpg</t>
+  </si>
+  <si>
+    <t>Stop Sign</t>
+  </si>
+  <si>
+    <t>bedroom5.jpg</t>
+  </si>
+  <si>
+    <t>Coffee Maker</t>
+  </si>
+  <si>
+    <t>bell.jpg</t>
+  </si>
+  <si>
+    <t>bin.jpg</t>
+  </si>
+  <si>
+    <t>Bathroom Sign</t>
+  </si>
+  <si>
+    <t>blender.jpg</t>
+  </si>
+  <si>
+    <t>Toothpaste</t>
+  </si>
+  <si>
+    <t>brick_apartment.png</t>
+  </si>
+  <si>
+    <t>Fishing Rod</t>
+  </si>
+  <si>
+    <t>briefcase.jpg</t>
+  </si>
+  <si>
     <t>Crosswalk</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>Inconsistent</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>bathroom2.jpg</t>
-  </si>
-  <si>
-    <t>Tractor</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>bathroom3.jpg</t>
-  </si>
-  <si>
-    <t>Radio Tower</t>
-  </si>
-  <si>
-    <t>bathroom4.jpg</t>
-  </si>
-  <si>
-    <t>Razor</t>
-  </si>
-  <si>
-    <t>consistent</t>
-  </si>
-  <si>
-    <t>bathroom6.jpg</t>
-  </si>
-  <si>
-    <t>Plunger</t>
-  </si>
-  <si>
-    <t>bathroom7.jpg</t>
-  </si>
-  <si>
-    <t>Soap Bar</t>
-  </si>
-  <si>
-    <t>bedroom11.jpg</t>
+    <t>bust.jpg</t>
+  </si>
+  <si>
+    <t>TV Remote</t>
+  </si>
+  <si>
+    <t>child_bedroom.png</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>citycenter10.jpg</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>citycenter11.jpg</t>
+  </si>
+  <si>
+    <t>Horse Carriage</t>
+  </si>
+  <si>
+    <t>citycenter12.jpg</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>citycenter2.jpg</t>
+  </si>
+  <si>
+    <t>Picture Frame</t>
+  </si>
+  <si>
+    <t>citycenter26.jpg</t>
+  </si>
+  <si>
+    <t>Sculpture</t>
+  </si>
+  <si>
+    <t>class11.jpg</t>
+  </si>
+  <si>
+    <t>class3.jpg</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>class6.jpg</t>
+  </si>
+  <si>
+    <t>class8.jpg</t>
+  </si>
+  <si>
+    <t>Pencil Case</t>
+  </si>
+  <si>
+    <t>class9.jpg</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>clock.jpg</t>
+  </si>
+  <si>
+    <t>coast10.jpg</t>
+  </si>
+  <si>
+    <t>Surfboard</t>
+  </si>
+  <si>
+    <t>coast11.jpg</t>
+  </si>
+  <si>
+    <t>Lifeguard Tower</t>
+  </si>
+  <si>
+    <t>coast3.jpg</t>
+  </si>
+  <si>
+    <t>Soccer Ball</t>
+  </si>
+  <si>
+    <t>coast7.jpg</t>
+  </si>
+  <si>
+    <t>Yield Sign</t>
+  </si>
+  <si>
+    <t>coast8.jpg</t>
+  </si>
+  <si>
+    <t>Buoy</t>
+  </si>
+  <si>
+    <t>conference1.jpg</t>
+  </si>
+  <si>
+    <t>Briefcase</t>
+  </si>
+  <si>
+    <t>conference3.jpg</t>
+  </si>
+  <si>
+    <t>Oven Mitts</t>
+  </si>
+  <si>
+    <t>conference5.jpg</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>conference7.jpg</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>conference8.jpg</t>
+  </si>
+  <si>
+    <t>Swing Set</t>
+  </si>
+  <si>
+    <t>corridor1.jpg</t>
+  </si>
+  <si>
+    <t>Utility Pole</t>
+  </si>
+  <si>
+    <t>corridor2.jpg</t>
+  </si>
+  <si>
+    <t>corridor3.jpg</t>
+  </si>
+  <si>
+    <t>Wild Berries</t>
+  </si>
+  <si>
+    <t>corridor4.jpg</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>corridor5.jpg</t>
+  </si>
+  <si>
+    <t>Birdhouse</t>
+  </si>
+  <si>
+    <t>dining3.jpg</t>
   </si>
   <si>
     <t>Paper Shredder</t>
   </si>
   <si>
-    <t>bedroom12.jpg</t>
-  </si>
-  <si>
-    <t>Dresser</t>
-  </si>
-  <si>
-    <t>bedroom13.jpg</t>
+    <t>dining5.jpg</t>
+  </si>
+  <si>
+    <t>Speed Limit Sign</t>
+  </si>
+  <si>
+    <t>dining6.jpg</t>
+  </si>
+  <si>
+    <t>dining7.jpg</t>
+  </si>
+  <si>
+    <t>Spoon</t>
+  </si>
+  <si>
+    <t>dining8.jpg</t>
+  </si>
+  <si>
+    <t>elephant.jpg</t>
+  </si>
+  <si>
+    <t>Napkin</t>
+  </si>
+  <si>
+    <t>fan.jpg</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>farm1.jpg</t>
   </si>
   <si>
     <t>Road Work Sign</t>
   </si>
   <si>
-    <t>bedroom14.jpg</t>
-  </si>
-  <si>
-    <t>Bathroom Sign</t>
-  </si>
-  <si>
-    <t>bedroom5.jpg</t>
-  </si>
-  <si>
-    <t>Textbook</t>
-  </si>
-  <si>
-    <t>bell.jpg</t>
-  </si>
-  <si>
-    <t>Oven Mitts</t>
-  </si>
-  <si>
-    <t>bin.jpg</t>
-  </si>
-  <si>
-    <t>Drinking Fountain</t>
-  </si>
-  <si>
-    <t>blender.jpg</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>brick_apartment.png</t>
-  </si>
-  <si>
-    <t>Bird Bath</t>
-  </si>
-  <si>
-    <t>briefcase.jpg</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>bust.jpg</t>
-  </si>
-  <si>
-    <t>TV Remote</t>
-  </si>
-  <si>
-    <t>child_bedroom.png</t>
-  </si>
-  <si>
-    <t>Teddy Bear</t>
-  </si>
-  <si>
-    <t>citycenter10.jpg</t>
-  </si>
-  <si>
-    <t>Spoon</t>
-  </si>
-  <si>
-    <t>citycenter11.jpg</t>
-  </si>
-  <si>
-    <t>citycenter12.jpg</t>
-  </si>
-  <si>
-    <t>Historic Plaque</t>
-  </si>
-  <si>
-    <t>citycenter2.jpg</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>citycenter26.jpg</t>
-  </si>
-  <si>
-    <t>Sculpture</t>
-  </si>
-  <si>
-    <t>class11.jpg</t>
-  </si>
-  <si>
-    <t>Projector</t>
-  </si>
-  <si>
-    <t>class3.jpg</t>
-  </si>
-  <si>
-    <t>Trash Bags</t>
-  </si>
-  <si>
-    <t>class6.jpg</t>
-  </si>
-  <si>
-    <t>class8.jpg</t>
-  </si>
-  <si>
-    <t>Pencil Case</t>
-  </si>
-  <si>
-    <t>class9.jpg</t>
-  </si>
-  <si>
-    <t>Crayons</t>
-  </si>
-  <si>
-    <t>clock.jpg</t>
-  </si>
-  <si>
-    <t>Stop Sign</t>
-  </si>
-  <si>
-    <t>coast10.jpg</t>
-  </si>
-  <si>
-    <t>Surfboard</t>
-  </si>
-  <si>
-    <t>coast11.jpg</t>
-  </si>
-  <si>
-    <t>Lifeguard Tower</t>
-  </si>
-  <si>
-    <t>coast3.jpg</t>
-  </si>
-  <si>
-    <t>coast7.jpg</t>
-  </si>
-  <si>
-    <t>coast8.jpg</t>
-  </si>
-  <si>
-    <t>Buoy</t>
-  </si>
-  <si>
-    <t>conference1.jpg</t>
+    <t>farm2.jpg</t>
+  </si>
+  <si>
+    <t>Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>farm3.jpg</t>
+  </si>
+  <si>
+    <t>farm4.jpg</t>
+  </si>
+  <si>
+    <t>farm7.jpg</t>
+  </si>
+  <si>
+    <t>Apron</t>
+  </si>
+  <si>
+    <t>fire_hydrant.jpg</t>
+  </si>
+  <si>
+    <t>Flag Pole</t>
+  </si>
+  <si>
+    <t>flowers.jpg</t>
+  </si>
+  <si>
+    <t>forest1.jpg</t>
+  </si>
+  <si>
+    <t>Toadstool Mushroom</t>
+  </si>
+  <si>
+    <t>forest11.jpg</t>
+  </si>
+  <si>
+    <t>Mailbox</t>
+  </si>
+  <si>
+    <t>forest14.jpg</t>
+  </si>
+  <si>
+    <t>forest2.jpg</t>
+  </si>
+  <si>
+    <t>Bird Nest</t>
+  </si>
+  <si>
+    <t>forest9.jpg</t>
+  </si>
+  <si>
+    <t>fruit_bowl.jpg</t>
+  </si>
+  <si>
+    <t>glass.jpg</t>
+  </si>
+  <si>
+    <t>Toaster</t>
+  </si>
+  <si>
+    <t>highway10.jpg</t>
+  </si>
+  <si>
+    <t>highway12.jpg</t>
+  </si>
+  <si>
+    <t>highway6.jpg</t>
+  </si>
+  <si>
+    <t>highway8.jpg</t>
+  </si>
+  <si>
+    <t>highway9.jpg</t>
+  </si>
+  <si>
+    <t>kitchen10.jpg</t>
+  </si>
+  <si>
+    <t>kitchen13.jpg</t>
+  </si>
+  <si>
+    <t>Stand Mixer</t>
+  </si>
+  <si>
+    <t>kitchen15.jpg</t>
+  </si>
+  <si>
+    <t>kitchen16.jpg</t>
+  </si>
+  <si>
+    <t>kitchen17.jpg</t>
+  </si>
+  <si>
+    <t>living13.jpg</t>
+  </si>
+  <si>
+    <t>living16.jpg</t>
+  </si>
+  <si>
+    <t>Sandbox</t>
+  </si>
+  <si>
+    <t>living17.jpg</t>
+  </si>
+  <si>
+    <t>living6.jpg</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>living9.jpg</t>
+  </si>
+  <si>
+    <t>MDS201.jpg</t>
+  </si>
+  <si>
+    <t>modern_livingroom.png</t>
+  </si>
+  <si>
+    <t>natural_fall.png</t>
+  </si>
+  <si>
+    <t>Nature14.jpg</t>
+  </si>
+  <si>
+    <t>Nature22.jpg</t>
   </si>
   <si>
     <t>Crosswalk Signal</t>
   </si>
   <si>
-    <t>conference3.jpg</t>
-  </si>
-  <si>
-    <t>Flag Pole</t>
-  </si>
-  <si>
-    <t>conference5.jpg</t>
-  </si>
-  <si>
-    <t>Napkin</t>
-  </si>
-  <si>
-    <t>conference7.jpg</t>
-  </si>
-  <si>
-    <t>conference8.jpg</t>
-  </si>
-  <si>
-    <t>Fishing Rod</t>
-  </si>
-  <si>
-    <t>corridor1.jpg</t>
-  </si>
-  <si>
-    <t>corridor2.jpg</t>
-  </si>
-  <si>
-    <t>corridor3.jpg</t>
-  </si>
-  <si>
-    <t>Floor Lamp</t>
-  </si>
-  <si>
-    <t>corridor4.jpg</t>
-  </si>
-  <si>
-    <t>Exit Sign</t>
-  </si>
-  <si>
-    <t>corridor5.jpg</t>
-  </si>
-  <si>
-    <t>dining3.jpg</t>
-  </si>
-  <si>
-    <t>dining5.jpg</t>
-  </si>
-  <si>
-    <t>Subway Station Sign</t>
-  </si>
-  <si>
-    <t>dining6.jpg</t>
-  </si>
-  <si>
-    <t>Candle</t>
-  </si>
-  <si>
-    <t>dining7.jpg</t>
-  </si>
-  <si>
-    <t>dining8.jpg</t>
-  </si>
-  <si>
-    <t>elephant.jpg</t>
-  </si>
-  <si>
-    <t>fan.jpg</t>
-  </si>
-  <si>
-    <t>Calculator</t>
-  </si>
-  <si>
-    <t>farm1.jpg</t>
-  </si>
-  <si>
-    <t>Hay Bale</t>
-  </si>
-  <si>
-    <t>farm2.jpg</t>
-  </si>
-  <si>
-    <t>Utility Pole</t>
-  </si>
-  <si>
-    <t>farm3.jpg</t>
-  </si>
-  <si>
-    <t>Scarecrow</t>
-  </si>
-  <si>
-    <t>farm4.jpg</t>
-  </si>
-  <si>
-    <t>farm7.jpg</t>
-  </si>
-  <si>
-    <t>fire_hydrant.jpg</t>
-  </si>
-  <si>
-    <t>flowers.jpg</t>
-  </si>
-  <si>
-    <t>Speed Limit Sign</t>
-  </si>
-  <si>
-    <t>forest1.jpg</t>
-  </si>
-  <si>
-    <t>Toadstool Mushroom</t>
-  </si>
-  <si>
-    <t>forest11.jpg</t>
-  </si>
-  <si>
-    <t>Log Cabin</t>
-  </si>
-  <si>
-    <t>forest14.jpg</t>
-  </si>
-  <si>
-    <t>forest2.jpg</t>
-  </si>
-  <si>
-    <t>Farmhouse</t>
-  </si>
-  <si>
-    <t>forest9.jpg</t>
-  </si>
-  <si>
-    <t>fruit_bowl.jpg</t>
-  </si>
-  <si>
-    <t>glass.jpg</t>
-  </si>
-  <si>
-    <t>Toaster</t>
-  </si>
-  <si>
-    <t>highway10.jpg</t>
-  </si>
-  <si>
-    <t>highway12.jpg</t>
-  </si>
-  <si>
-    <t>highway6.jpg</t>
-  </si>
-  <si>
-    <t>highway8.jpg</t>
-  </si>
-  <si>
-    <t>Bicycle</t>
-  </si>
-  <si>
-    <t>highway9.jpg</t>
-  </si>
-  <si>
-    <t>kitchen10.jpg</t>
-  </si>
-  <si>
-    <t>Rolling Pin</t>
-  </si>
-  <si>
-    <t>kitchen13.jpg</t>
-  </si>
-  <si>
-    <t>Stand Mixer</t>
-  </si>
-  <si>
-    <t>kitchen15.jpg</t>
-  </si>
-  <si>
-    <t>Apron</t>
-  </si>
-  <si>
-    <t>kitchen16.jpg</t>
-  </si>
-  <si>
-    <t>kitchen17.jpg</t>
-  </si>
-  <si>
-    <t>living13.jpg</t>
-  </si>
-  <si>
-    <t>living16.jpg</t>
-  </si>
-  <si>
-    <t>Picnic Table</t>
-  </si>
-  <si>
-    <t>living17.jpg</t>
-  </si>
-  <si>
-    <t>living6.jpg</t>
-  </si>
-  <si>
-    <t>Swing Set</t>
-  </si>
-  <si>
-    <t>living9.jpg</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>MDS201.jpg</t>
-  </si>
-  <si>
-    <t>modern_livingroom.png</t>
-  </si>
-  <si>
-    <t>natural_fall.png</t>
-  </si>
-  <si>
-    <t>Nature14.jpg</t>
-  </si>
-  <si>
-    <t>Nature22.jpg</t>
-  </si>
-  <si>
     <t>Nature36.jpg</t>
   </si>
   <si>
+    <t>Lily Pad</t>
+  </si>
+  <si>
     <t>Nature40.jpg</t>
   </si>
   <si>
+    <t>Kayak</t>
+  </si>
+  <si>
     <t>Nature47.jpg</t>
   </si>
   <si>
@@ -499,6 +508,9 @@
     <t>office10.jpg</t>
   </si>
   <si>
+    <t>Stapler</t>
+  </si>
+  <si>
     <t>office4.jpg</t>
   </si>
   <si>
@@ -511,18 +523,12 @@
     <t>opencountry1.jpg</t>
   </si>
   <si>
-    <t>Newspaper Box</t>
-  </si>
-  <si>
     <t>opencountry2.jpg</t>
   </si>
   <si>
     <t>opencountry3.jpg</t>
   </si>
   <si>
-    <t>Broom</t>
-  </si>
-  <si>
     <t>opencountry5.jpg</t>
   </si>
   <si>
@@ -532,9 +538,6 @@
     <t>plant_bathroom.png</t>
   </si>
   <si>
-    <t>Sandbox</t>
-  </si>
-  <si>
     <t>play10.jpg</t>
   </si>
   <si>
@@ -550,9 +553,6 @@
     <t>play5.jpg</t>
   </si>
   <si>
-    <t>Fire Hydrant</t>
-  </si>
-  <si>
     <t>pond.png</t>
   </si>
   <si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Urban14.jpg</t>
-  </si>
-  <si>
-    <t>Bus Stop Shelter</t>
   </si>
   <si>
     <t>urbanstreet1.jpg</t>
@@ -608,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -622,12 +619,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -773,7 +764,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -812,9 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,13 +1961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2033,8 +2021,8 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>85</v>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -2046,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="7">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,20 +2044,20 @@
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>80</v>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,71 +2065,71 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G7" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2152,16 +2140,16 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G8" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2175,19 +2163,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G9" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2198,16 +2186,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2221,16 +2209,16 @@
         <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2240,20 +2228,20 @@
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2263,8 +2251,8 @@
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
+      <c r="C13" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>9</v>
@@ -2273,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G13" s="11">
         <v>50</v>
@@ -2286,20 +2274,20 @@
       <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2307,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -2319,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2330,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>10</v>
@@ -2345,67 +2333,67 @@
         <v>11</v>
       </c>
       <c r="G16" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>4</v>
@@ -2417,27 +2405,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2445,22 +2433,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G21" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2468,25 +2456,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="D22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G22" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2497,19 +2485,19 @@
         <v>53</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2520,19 +2508,19 @@
         <v>55</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G24" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2543,13 +2531,13 @@
         <v>57</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G25" s="11">
         <v>100</v>
@@ -2562,8 +2550,8 @@
       <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>50</v>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>9</v>
@@ -2572,10 +2560,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G26" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2583,13 +2571,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>10</v>
@@ -2598,142 +2586,142 @@
         <v>11</v>
       </c>
       <c r="G27" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G28" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G29" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G31" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G32" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G33" s="11">
         <v>50</v>
@@ -2744,13 +2732,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>10</v>
@@ -2759,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2767,25 +2755,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G35" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2796,7 +2784,7 @@
         <v>76</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>4</v>
@@ -2815,20 +2803,20 @@
       <c r="B37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>120</v>
+      <c r="C37" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G37" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2838,20 +2826,20 @@
       <c r="B38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>72</v>
+      <c r="C38" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G38" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2861,23 +2849,23 @@
       <c r="B39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>136</v>
+      <c r="C39" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G39" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2885,16 +2873,16 @@
         <v>83</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G40" s="11">
         <v>50</v>
@@ -2905,68 +2893,68 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G41" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G43" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2974,42 +2962,42 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G44" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G45" s="11">
         <v>50</v>
@@ -3020,13 +3008,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>10</v>
@@ -3035,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3043,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>9</v>
@@ -3058,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3066,36 +3054,36 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G48" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>4</v>
@@ -3107,24 +3095,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G50" s="11">
         <v>100</v>
@@ -3135,91 +3123,91 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G51" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G52" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G53" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G54" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3227,42 +3215,42 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G55" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G56" s="11">
         <v>100</v>
@@ -3273,68 +3261,68 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G57" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G58" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="11">
         <v>80</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="11">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3342,36 +3330,36 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G60" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>4</v>
@@ -3380,27 +3368,27 @@
         <v>11</v>
       </c>
       <c r="G61" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G62" s="11">
         <v>100</v>
@@ -3411,7 +3399,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>57</v>
@@ -3423,10 +3411,10 @@
         <v>10</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G63" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3434,16 +3422,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>11</v>
@@ -3457,10 +3445,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>9</v>
@@ -3469,10 +3457,10 @@
         <v>10</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G65" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3480,36 +3468,36 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G66" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>4</v>
@@ -3526,22 +3514,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G68" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3549,45 +3537,45 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G69" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G70" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3595,128 +3583,128 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G71" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8">
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G72" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G73" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G74" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G75" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>4</v>
@@ -3733,22 +3721,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G77" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3756,22 +3744,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G78" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3779,22 +3767,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G79" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,19 +3790,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>24</v>
+        <v>144</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G80" s="11">
         <v>50</v>
@@ -3825,22 +3813,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>8</v>
+        <v>145</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G81" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3848,91 +3836,91 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G82" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G83" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G85" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3940,22 +3928,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G86" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3963,10 +3951,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>9</v>
@@ -3975,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G87" s="11">
         <v>50</v>
@@ -3986,16 +3974,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>11</v>
@@ -4009,45 +3997,45 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G90" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4055,10 +4043,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>9</v>
@@ -4067,10 +4055,10 @@
         <v>10</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G91" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4078,22 +4066,22 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G92" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4101,22 +4089,22 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>141</v>
+        <v>163</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G93" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4124,13 +4112,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>42</v>
+        <v>164</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>10</v>
@@ -4139,30 +4127,30 @@
         <v>11</v>
       </c>
       <c r="G94" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8">
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G95" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4170,45 +4158,45 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8">
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G97" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4216,22 +4204,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G98" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4239,45 +4227,45 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G99" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8">
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G100" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4285,45 +4273,45 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G101" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="8">
+        <v>80</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="11">
         <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8">
-        <v>100</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="11">
-        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4331,10 +4319,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>76</v>
+        <v>173</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>9</v>
@@ -4343,56 +4331,56 @@
         <v>10</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G103" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8">
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G104" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8">
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G105" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4400,22 +4388,22 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>55</v>
+        <v>176</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4423,22 +4411,22 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G107" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4446,114 +4434,114 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G108" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8">
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G109" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8">
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G110" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8">
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G111" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8">
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G112" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4561,68 +4549,68 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G113" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8">
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G114" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8">
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G115" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,10 +4618,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>155</v>
+        <v>186</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>9</v>
@@ -4642,13 +4630,13 @@
         <v>10</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G116" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -4656,19 +4644,19 @@
         <v>187</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G117" s="11">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4679,22 +4667,22 @@
         <v>188</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G118" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -4702,22 +4690,22 @@
         <v>189</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -4725,22 +4713,22 @@
         <v>190</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G120" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -4748,22 +4736,22 @@
         <v>191</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G121" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -4771,29 +4759,22 @@
         <v>192</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G122" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G122" xr:uid="{EDE809B1-5AB8-FF48-A577-540211075FAB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Inconsistent"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
